--- a/DataBase/healthtag/neck/neck.xlsx
+++ b/DataBase/healthtag/neck/neck.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\하현우\code\Dev-Dream\HealthTag\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\하현우\code\Dev-Dream\HealthTag\DataBase\healthtag\neck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2828439-A155-4BDF-AA70-5E87DCF2D3D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767544BD-0CAD-4F5D-A26E-95658A1A82F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64B773B6-242A-4BA3-8B26-B91F207E5065}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{64B773B6-242A-4BA3-8B26-B91F207E5065}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>당뇨병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>객담</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연하곤란 및 연하통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인후염</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +118,18 @@
   </si>
   <si>
     <t>인두통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침삼킬때아픔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목마름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가래</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +512,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,30 +527,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -580,7 +580,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -596,7 +596,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -614,7 +614,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -632,7 +632,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -660,7 +660,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -698,7 +698,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -746,7 +746,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -791,5 +791,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>